--- a/Team-Data/2012-13/1-12-2012-13.xlsx
+++ b/Team-Data/2012-13/1-12-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
         <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.583</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J2" t="n">
         <v>81.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
         <v>8.9</v>
@@ -696,76 +763,76 @@
         <v>23.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
         <v>13.4</v>
       </c>
       <c r="P2" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.702</v>
+        <v>0.705</v>
       </c>
       <c r="R2" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>30.9</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
         <v>23.2</v>
       </c>
       <c r="V2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W2" t="n">
         <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
         <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
       </c>
       <c r="AH2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI2" t="n">
         <v>11</v>
       </c>
-      <c r="AI2" t="n">
-        <v>14</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -789,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -804,22 +871,22 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
@@ -986,16 +1053,16 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1129,28 +1196,28 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1162,7 +1229,7 @@
         <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1177,13 +1244,13 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
         <v>16</v>
       </c>
       <c r="BC4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.257</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,37 +1297,37 @@
         <v>35.2</v>
       </c>
       <c r="J5" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O5" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P5" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
         <v>29.7</v>
       </c>
       <c r="T5" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
         <v>19.4</v>
@@ -1269,7 +1336,7 @@
         <v>14.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>6.4</v>
@@ -1278,25 +1345,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC5" t="n">
         <v>-8.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
         <v>28</v>
@@ -1317,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>20</v>
@@ -1326,19 +1393,19 @@
         <v>3</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU5" t="n">
         <v>29</v>
@@ -1347,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -1394,70 +1461,70 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.571</v>
+        <v>0.588</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.363</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>43.2</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V6" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
         <v>19.4</v>
@@ -1466,28 +1533,28 @@
         <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1508,37 +1575,37 @@
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
         <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1666,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>27</v>
@@ -1681,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
         <v>13</v>
@@ -1696,13 +1763,13 @@
         <v>22</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.395</v>
+        <v>0.378</v>
       </c>
       <c r="H8" t="n">
         <v>49.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L8" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.351</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
         <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.789</v>
+        <v>0.791</v>
       </c>
       <c r="R8" t="n">
         <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T8" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U8" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V8" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W8" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>4.7</v>
@@ -1827,25 +1894,25 @@
         <v>21.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>-3.7</v>
+        <v>-4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1863,10 +1930,10 @@
         <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1881,31 +1948,31 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV8" t="n">
         <v>17</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>14</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>2.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2051,10 +2118,10 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2078,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2090,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.368</v>
+        <v>0.378</v>
       </c>
       <c r="H10" t="n">
         <v>48.7</v>
       </c>
       <c r="I10" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>80.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L10" t="n">
         <v>6.3</v>
@@ -2155,37 +2222,37 @@
         <v>0.374</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P10" t="n">
         <v>23.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.714</v>
+        <v>0.716</v>
       </c>
       <c r="R10" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="S10" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U10" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
         <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X10" t="n">
         <v>5.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z10" t="n">
         <v>19.9</v>
@@ -2194,22 +2261,22 @@
         <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
         <v>22</v>
       </c>
-      <c r="AF10" t="n">
-        <v>24</v>
-      </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>8</v>
@@ -2218,22 +2285,22 @@
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2242,13 +2309,13 @@
         <v>26</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>25</v>
@@ -2260,19 +2327,19 @@
         <v>29</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
         <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>2.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2397,13 +2464,13 @@
         <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2433,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.553</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,28 +2571,28 @@
         <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.459</v>
       </c>
       <c r="L12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="M12" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.357</v>
       </c>
       <c r="O12" t="n">
         <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R12" t="n">
         <v>10.6</v>
@@ -2546,7 +2613,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
         <v>6.3</v>
@@ -2558,22 +2625,22 @@
         <v>19.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2582,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>4</v>
@@ -2606,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
         <v>7</v>
@@ -2624,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -2668,49 +2735,49 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.622</v>
+        <v>0.611</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.42</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R13" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
         <v>33.3</v>
@@ -2719,37 +2786,37 @@
         <v>46.3</v>
       </c>
       <c r="U13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V13" t="n">
         <v>15.1</v>
       </c>
       <c r="W13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>6.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
         <v>19.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.09999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,22 +2825,22 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
         <v>18</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
@@ -2782,13 +2849,13 @@
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
@@ -2800,28 +2867,28 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -2850,82 +2917,82 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.757</v>
+        <v>0.778</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
         <v>20.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O14" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.713</v>
+        <v>0.711</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T14" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="X14" t="n">
         <v>6.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
         <v>101.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
@@ -2934,19 +3001,19 @@
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2961,28 +3028,28 @@
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>27</v>
       </c>
       <c r="AR14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS14" t="n">
         <v>17</v>
       </c>
-      <c r="AS14" t="n">
-        <v>19</v>
-      </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,16 +3058,16 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3177,22 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>16</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3161,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV15" t="n">
         <v>25</v>
@@ -3170,10 +3237,10 @@
         <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>11</v>
@@ -3185,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -3214,34 +3281,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.706</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
         <v>82.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="N16" t="n">
         <v>0.348</v>
@@ -3250,49 +3317,49 @@
         <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.799</v>
+        <v>0.805</v>
       </c>
       <c r="R16" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S16" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
         <v>21.1</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
         <v>5.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
         <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3313,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3337,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>13</v>
@@ -3346,7 +3413,7 @@
         <v>21</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3355,19 +3422,19 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
         <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -3396,70 +3463,70 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J17" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K17" t="n">
-        <v>0.489</v>
+        <v>0.487</v>
       </c>
       <c r="L17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
         <v>22.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T17" t="n">
         <v>39.1</v>
       </c>
       <c r="U17" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="V17" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
         <v>19</v>
@@ -3468,28 +3535,28 @@
         <v>19.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.6</v>
+        <v>101.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF17" t="n">
         <v>4</v>
       </c>
-      <c r="AF17" t="n">
-        <v>3</v>
-      </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,22 +3565,22 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,16 +3592,16 @@
         <v>29</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3546,11 +3613,11 @@
         <v>14</v>
       </c>
       <c r="BB17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC17" t="n">
         <v>5</v>
       </c>
-      <c r="BC17" t="n">
-        <v>4</v>
-      </c>
       <c r="BD17" t="n">
         <v>10</v>
       </c>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3671,7 +3738,7 @@
         <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3692,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
@@ -3707,7 +3774,7 @@
         <v>8</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>11</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-0.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3865,16 +3932,16 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4032,16 +4099,16 @@
         <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4065,7 +4132,7 @@
         <v>19</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
@@ -4083,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>16</v>
@@ -4095,7 +4162,7 @@
         <v>28</v>
       </c>
       <c r="BC20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF21" t="n">
         <v>7</v>
@@ -4217,13 +4284,13 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
         <v>6</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4250,7 +4317,7 @@
         <v>26</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4435,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.361</v>
+        <v>0.343</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4506,22 +4573,22 @@
         <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O23" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="P23" t="n">
         <v>16.4</v>
@@ -4533,49 +4600,49 @@
         <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T23" t="n">
         <v>42.9</v>
       </c>
       <c r="U23" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>5.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA23" t="n">
         <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
         <v>15</v>
@@ -4587,16 +4654,16 @@
         <v>14</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>19</v>
       </c>
       <c r="AN23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4617,10 +4684,10 @@
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4629,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -4670,58 +4737,58 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.421</v>
+        <v>0.405</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J24" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L24" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
         <v>18.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O24" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="P24" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R24" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T24" t="n">
         <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V24" t="n">
         <v>12.8</v>
@@ -4733,7 +4800,7 @@
         <v>5.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
         <v>18.9</v>
@@ -4742,22 +4809,22 @@
         <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4769,13 +4836,13 @@
         <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
         <v>12</v>
@@ -4793,25 +4860,25 @@
         <v>21</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT24" t="n">
         <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
         <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
@@ -4870,25 +4937,25 @@
         <v>37.6</v>
       </c>
       <c r="J25" t="n">
-        <v>84.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L25" t="n">
         <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="O25" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="P25" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.745</v>
@@ -4897,28 +4964,28 @@
         <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V25" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y25" t="n">
         <v>5.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
         <v>18.2</v>
@@ -4927,13 +4994,13 @@
         <v>95.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.2</v>
+        <v>-4.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
         <v>27</v>
@@ -4957,7 +5024,7 @@
         <v>24</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN25" t="n">
         <v>27</v>
@@ -4972,16 +5039,16 @@
         <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>5</v>
@@ -4990,10 +5057,10 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ25" t="n">
         <v>21</v>
@@ -5002,10 +5069,10 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -5121,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5136,7 +5203,7 @@
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
@@ -5157,19 +5224,19 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>20</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
         <v>13</v>
       </c>
       <c r="AW26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX26" t="n">
         <v>21</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,10 +5301,10 @@
         <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L27" t="n">
         <v>6.8</v>
@@ -5246,52 +5313,52 @@
         <v>19.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O27" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q27" t="n">
         <v>0.768</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="T27" t="n">
         <v>40.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
         <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.2</v>
+        <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
         <v>10</v>
@@ -5300,19 +5367,19 @@
         <v>24</v>
       </c>
       <c r="AF27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG27" t="n">
         <v>24</v>
       </c>
-      <c r="AG27" t="n">
-        <v>25</v>
-      </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -5324,22 +5391,22 @@
         <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>14</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR27" t="n">
         <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT27" t="n">
         <v>25</v>
@@ -5348,19 +5415,19 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW27" t="n">
         <v>12</v>
       </c>
-      <c r="AW27" t="n">
-        <v>13</v>
-      </c>
       <c r="AX27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>24</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG28" t="n">
         <v>3</v>
@@ -5509,7 +5576,7 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5536,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5676,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5691,7 +5758,7 @@
         <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5700,7 +5767,7 @@
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
@@ -5718,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5730,7 +5797,7 @@
         <v>21</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.513</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,49 +5847,49 @@
         <v>36.5</v>
       </c>
       <c r="J30" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L30" t="n">
         <v>6.5</v>
       </c>
       <c r="M30" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O30" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P30" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.7</v>
       </c>
       <c r="U30" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y30" t="n">
         <v>6.2</v>
@@ -5834,16 +5901,16 @@
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5855,16 +5922,16 @@
         <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
@@ -5873,19 +5940,19 @@
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5894,7 +5961,7 @@
         <v>10</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.176</v>
+        <v>0.152</v>
       </c>
       <c r="H31" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I31" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J31" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="L31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="O31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="P31" t="n">
         <v>19.8</v>
       </c>
-      <c r="N31" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="O31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="P31" t="n">
-        <v>20</v>
-      </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R31" t="n">
         <v>11.4</v>
       </c>
       <c r="S31" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T31" t="n">
-        <v>43.9</v>
+        <v>43.6</v>
       </c>
       <c r="U31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V31" t="n">
         <v>15.2</v>
@@ -6004,22 +6071,22 @@
         <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
         <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>89.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-8</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
@@ -6046,10 +6113,10 @@
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
@@ -6064,28 +6131,28 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
         <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-12-2012-13</t>
+          <t>2013-01-12</t>
         </is>
       </c>
     </row>
